--- a/biology/Botanique/Dicksonia/Dicksonia.xlsx
+++ b/biology/Botanique/Dicksonia/Dicksonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Dicksonia appartient à la famille des Dicksoniaceae. Il est composé d'environ 25 espèces de fougères arborescentes, persistantes ou semi-persistantes.
 Les rhizomes sont arborescents, parfois grimpants, et forment des stipes qui ressemblent à des troncs. Souvent trapus, ils sont recouverts par des racines fibreuses et par la base des vieilles feuilles. Ils sont couronnés de frondes coriaces étalées, pennées ou pennatifides. Les sores sont arrondis.
@@ -513,7 +525,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est nommé en mémoire de James Dickson, un botaniste et pépiniériste écossais.
 </t>
@@ -544,9 +558,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre contient 25 espèces[1] :                   (mise à jour : 2018)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre contient 25 espèces :                   (mise à jour : 2018)
 Dicksonia antarctica,  Australie.
 Dicksonia arborescens, Île Sainte-Hélène
 Dicksonia archboldii, Nouvelle-Guinée
@@ -572,7 +588,7 @@
 Dicksonia thyrsopteroides, Mett., Nouvelle-Calédonie.
 Dicksonia timorensis, Petites îles de la Sonde
 Dicksonia youngiae,  Australie.
-Phylogénie de Dicksonia[2],[3]
+Phylogénie de Dicksonia,
 </t>
         </is>
       </c>
